--- a/release/train/ca_data/300365961.pdf.xlsx
+++ b/release/train/ca_data/300365961.pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cinnamon\nlp_live_demo\bidding documents\ca_open_bid_電力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaowh/Downloads/bidding_document_dataset/release/train/ca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF8451-A392-4DE1-B96A-8D6EF00E4167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8F144-2CEF-1B4A-9146-532D136A4594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>調達年度;調達開始日;調達終了日</t>
   </si>
   <si>
-    <t>２０２０年;２０２０年４月１日から２０２１年３月３１日</t>
-  </si>
-  <si>
     <t>＊質問箇所 所属／担当者;＊資格申請送付先;＊入札書送付先</t>
   </si>
   <si>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>＊開札場所</t>
+  </si>
+  <si>
+    <t>２０２０年;２０２０年４月１日;２０２１年３月３１日</t>
   </si>
 </sst>
 </file>
@@ -951,19 +951,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="8" width="31.109375" customWidth="1"/>
+    <col min="7" max="8" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1337,10 +1337,10 @@
         <v>132</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2058,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2084,13 +2084,13 @@
         <v>7</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -2110,13 +2110,13 @@
         <v>7</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -2136,13 +2136,13 @@
         <v>7</v>
       </c>
       <c r="G56" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" t="s">
         <v>136</v>
       </c>
-      <c r="H56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -2182,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="G58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" t="s">
         <v>138</v>
       </c>
-      <c r="H58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -2228,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -2312,13 +2312,13 @@
         <v>7</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2338,13 +2338,13 @@
         <v>7</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2</v>
       </c>
@@ -2364,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>3</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>4</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>4</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>4</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>4</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>4</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>4</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>4</v>
       </c>
